--- a/Diplomski plan checklist.xlsx
+++ b/Diplomski plan checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Dipl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\cancer-platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3606A44D-B585-4E56-986E-8AF8FF48D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B9E6E-7859-4364-893F-38D3097E4FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="159">
   <si>
     <t>Diplomski plan: Checklist (dataset registry + pipeline + baseline)</t>
   </si>
@@ -492,13 +492,19 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Radim sva 4</t>
+  </si>
+  <si>
+    <t>https://github.com/Milki19/cancer-platform.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +537,14 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -575,10 +589,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -609,8 +624,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -827,7 +846,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H16"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -873,14 +892,14 @@
       </c>
       <c r="D3" s="1">
         <f>COUNTIF($H$7:$H$61,"Done")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2">
         <f>IF(B3=0,0,D3/B3)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -1006,14 +1025,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
@@ -1035,14 +1056,16 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -2163,11 +2186,11 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="5"/>
@@ -2513,6 +2536,9 @@
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{7654C113-DAEF-4A4F-AABE-8FA95501BF16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Diplomski plan checklist.xlsx
+++ b/Diplomski plan checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\cancer-platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milic\Desktop\cancer-platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B9E6E-7859-4364-893F-38D3097E4FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB56BB7-27D7-4BBC-BCD5-96888D087150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4305" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,13 +620,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,11 +845,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -863,23 +863,23 @@
     <col min="12" max="12" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="27.95" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="60">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -892,14 +892,14 @@
       </c>
       <c r="D3" s="1">
         <f>COUNTIF($H$7:$H$61,"Done")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2">
         <f>IF(B3=0,0,D3/B3)</f>
-        <v>0.14545454545454545</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="21.95" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -954,7 +954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="30">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -998,17 +998,17 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1063,12 +1063,12 @@
         <v>1</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="10" t="s">
         <v>158</v>
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>9</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="30">
       <c r="A17" s="4">
         <v>11</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="4">
         <v>12</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="4">
         <v>13</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="4">
         <v>14</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="4">
         <v>15</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="4">
         <v>16</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="4">
         <v>17</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="4">
         <v>18</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="4">
         <v>19</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="4">
         <v>20</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="4">
         <v>21</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="A28" s="4">
         <v>22</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="4">
         <v>23</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="A30" s="4">
         <v>24</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="A31" s="4">
         <v>25</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="A32" s="4">
         <v>26</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="4">
         <v>27</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="4">
         <v>28</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="4">
         <v>29</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="4">
         <v>30</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="4">
         <v>31</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="4">
         <v>32</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="4">
         <v>33</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="4">
         <v>34</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="4">
         <v>35</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="30">
       <c r="A42" s="4">
         <v>36</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="4">
         <v>37</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12">
       <c r="A44" s="4">
         <v>38</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="4">
         <v>39</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="4">
         <v>40</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="4">
         <v>41</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="4">
         <v>43</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="4">
         <v>44</v>
       </c>
@@ -2196,7 +2196,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="4">
         <v>45</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="4">
         <v>46</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="4">
         <v>47</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="4">
         <v>48</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="4">
         <v>49</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="4">
         <v>50</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="4">
         <v>51</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="4">
         <v>52</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="4">
         <v>53</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="4">
         <v>54</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="4">
         <v>55</v>
       </c>
@@ -2549,55 +2549,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="18.75">
       <c r="A1" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="18" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" ht="18" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" ht="18" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" ht="18" customHeight="1">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" ht="18" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" ht="18" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" ht="18" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>155</v>
       </c>
